--- a/va_facility_data_2025-02-20/Saginaw VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Saginaw%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Saginaw VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Saginaw%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb89d295d9b97446893cf69e1b7a86840"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rb9a4decfb853470aa6f875983b524783"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3d88b9b094954e3683ecfdf9c06647a7"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="Rd7e0599825254fbea941a0ca69db313b"/>
   </x:sheets>
 </x:workbook>
 </file>
